--- a/data/pca/factorExposure/factorExposure_2017-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02367205665910023</v>
+        <v>-0.009150574052847799</v>
       </c>
       <c r="C2">
-        <v>0.00279723608388594</v>
+        <v>-0.04258328999253066</v>
       </c>
       <c r="D2">
-        <v>0.02474535982134669</v>
+        <v>-0.02974995269344754</v>
       </c>
       <c r="E2">
-        <v>0.01126797326688112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03209006567381889</v>
+      </c>
+      <c r="F2">
+        <v>0.01168235497956711</v>
+      </c>
+      <c r="G2">
+        <v>0.07300464904472831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01710689993955367</v>
+        <v>-0.04890302259265653</v>
       </c>
       <c r="C3">
-        <v>-0.05325195068554556</v>
+        <v>-0.08207442603288004</v>
       </c>
       <c r="D3">
-        <v>0.03709199485884541</v>
+        <v>-0.01695172762449924</v>
       </c>
       <c r="E3">
-        <v>0.01552810224849199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1040825608298967</v>
+      </c>
+      <c r="F3">
+        <v>0.01424657160017519</v>
+      </c>
+      <c r="G3">
+        <v>0.1807899297816295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02324916374290294</v>
+        <v>-0.05811360641985324</v>
       </c>
       <c r="C4">
-        <v>-0.009882629840846277</v>
+        <v>-0.06448522862465815</v>
       </c>
       <c r="D4">
-        <v>0.07765100653793988</v>
+        <v>-0.02436925865679274</v>
       </c>
       <c r="E4">
-        <v>-0.01463727845152406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02467175088465067</v>
+      </c>
+      <c r="F4">
+        <v>0.01250699817786802</v>
+      </c>
+      <c r="G4">
+        <v>0.08640385808633699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01414263215056826</v>
+        <v>-0.03764885349288832</v>
       </c>
       <c r="C6">
-        <v>-0.0001259287933691011</v>
+        <v>-0.0531477837981016</v>
       </c>
       <c r="D6">
-        <v>0.08309222438792817</v>
+        <v>-0.01645164319678606</v>
       </c>
       <c r="E6">
-        <v>-0.007787702357317403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02396899391840608</v>
+      </c>
+      <c r="F6">
+        <v>0.01056271567036528</v>
+      </c>
+      <c r="G6">
+        <v>0.05847511874227065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01106970555000605</v>
+        <v>-0.02037744833573967</v>
       </c>
       <c r="C7">
-        <v>-0.006407072634858123</v>
+        <v>-0.0412911694759005</v>
       </c>
       <c r="D7">
-        <v>0.04098378199094491</v>
+        <v>-0.01313091992661804</v>
       </c>
       <c r="E7">
-        <v>-0.06045197418610318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005964907802890771</v>
+      </c>
+      <c r="F7">
+        <v>-0.003953575210105842</v>
+      </c>
+      <c r="G7">
+        <v>0.116387383590168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-7.972887998285431e-05</v>
+        <v>-0.001767190384746494</v>
       </c>
       <c r="C8">
-        <v>0.003135774472639303</v>
+        <v>-0.02407470108984543</v>
       </c>
       <c r="D8">
-        <v>0.005090603197222853</v>
+        <v>-0.004097156768718718</v>
       </c>
       <c r="E8">
-        <v>-0.008077184554989169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02118256876411765</v>
+      </c>
+      <c r="F8">
+        <v>0.008811502516504598</v>
+      </c>
+      <c r="G8">
+        <v>0.05640469102310219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01613433793458175</v>
+        <v>-0.03449073110882861</v>
       </c>
       <c r="C9">
-        <v>-0.01332520364164398</v>
+        <v>-0.0462459298227787</v>
       </c>
       <c r="D9">
-        <v>0.05575234867134497</v>
+        <v>-0.01651982467638584</v>
       </c>
       <c r="E9">
-        <v>-0.00387405247111016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01589315321651131</v>
+      </c>
+      <c r="F9">
+        <v>0.01128418500958523</v>
+      </c>
+      <c r="G9">
+        <v>0.08234839526585688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02237842557742195</v>
+        <v>-0.09507409273483561</v>
       </c>
       <c r="C10">
-        <v>-0.1724281624920315</v>
+        <v>0.182991109922471</v>
       </c>
       <c r="D10">
-        <v>-0.09117155956424977</v>
+        <v>0.01574948048602936</v>
       </c>
       <c r="E10">
-        <v>0.01114039130749921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01688759511111368</v>
+      </c>
+      <c r="F10">
+        <v>-0.0209799007392289</v>
+      </c>
+      <c r="G10">
+        <v>0.0520120103948643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004752589660444674</v>
+        <v>-0.03495115487190269</v>
       </c>
       <c r="C11">
-        <v>-0.002162919440591606</v>
+        <v>-0.05427632903403304</v>
       </c>
       <c r="D11">
-        <v>0.04417187371366684</v>
+        <v>-0.002579299867485922</v>
       </c>
       <c r="E11">
-        <v>0.006198406533521137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008787178821035304</v>
+      </c>
+      <c r="F11">
+        <v>0.02318253303822375</v>
+      </c>
+      <c r="G11">
+        <v>0.0656093705845345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006132267938006516</v>
+        <v>-0.03645033518556422</v>
       </c>
       <c r="C12">
-        <v>-0.008860458491076599</v>
+        <v>-0.0485874693061669</v>
       </c>
       <c r="D12">
-        <v>0.0481627612814059</v>
+        <v>-0.006298369044306598</v>
       </c>
       <c r="E12">
-        <v>-0.006379224848583056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0002893142802552905</v>
+      </c>
+      <c r="F12">
+        <v>0.002305929688215812</v>
+      </c>
+      <c r="G12">
+        <v>0.06142036035759567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02378804514083752</v>
+        <v>-0.0154078784729495</v>
       </c>
       <c r="C13">
-        <v>-0.01746855245492029</v>
+        <v>-0.03697927355012277</v>
       </c>
       <c r="D13">
-        <v>0.004647182149722461</v>
+        <v>-0.02611891537553466</v>
       </c>
       <c r="E13">
-        <v>0.009718239639525112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02866448157608994</v>
+      </c>
+      <c r="F13">
+        <v>0.008846480185546022</v>
+      </c>
+      <c r="G13">
+        <v>0.09645661152975619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00851534193694594</v>
+        <v>-0.00796676990465151</v>
       </c>
       <c r="C14">
-        <v>-0.01427763628086861</v>
+        <v>-0.02685932243962041</v>
       </c>
       <c r="D14">
-        <v>0.009565281815667204</v>
+        <v>-0.00943718545643735</v>
       </c>
       <c r="E14">
-        <v>-0.007608627428437751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>3.018232183509613e-05</v>
+      </c>
+      <c r="F14">
+        <v>-0.006041623736119169</v>
+      </c>
+      <c r="G14">
+        <v>0.08122537515289999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001316670684686001</v>
+        <v>-0.03360945420533058</v>
       </c>
       <c r="C16">
-        <v>-0.00811684244081891</v>
+        <v>-0.04855734027193263</v>
       </c>
       <c r="D16">
-        <v>0.04976458658312691</v>
+        <v>-0.002064086072398192</v>
       </c>
       <c r="E16">
-        <v>-0.005157161520338819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007652381714690612</v>
+      </c>
+      <c r="F16">
+        <v>0.003757985875835978</v>
+      </c>
+      <c r="G16">
+        <v>0.06794308907322465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0147951453078853</v>
+        <v>-0.02069851582812029</v>
       </c>
       <c r="C19">
-        <v>-0.01847138854852763</v>
+        <v>-0.04906951752710989</v>
       </c>
       <c r="D19">
-        <v>0.023496374651562</v>
+        <v>-0.01861513841493262</v>
       </c>
       <c r="E19">
-        <v>-0.005257003836439194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06517504798518252</v>
+      </c>
+      <c r="F19">
+        <v>0.02400999900959509</v>
+      </c>
+      <c r="G19">
+        <v>0.1121810982470951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01069640226767776</v>
+        <v>-0.0149669615245074</v>
       </c>
       <c r="C20">
-        <v>-0.005220957071581784</v>
+        <v>-0.03737127680091742</v>
       </c>
       <c r="D20">
-        <v>0.0165682269225786</v>
+        <v>-0.0140369226553045</v>
       </c>
       <c r="E20">
-        <v>0.01123478792485478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0270817632942225</v>
+      </c>
+      <c r="F20">
+        <v>-0.00867081521033505</v>
+      </c>
+      <c r="G20">
+        <v>0.08813583890218829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01471611586729568</v>
+        <v>-0.01321901314370264</v>
       </c>
       <c r="C21">
-        <v>-0.01752984622784724</v>
+        <v>-0.03824000844149891</v>
       </c>
       <c r="D21">
-        <v>0.02403177487347135</v>
+        <v>-0.01808132467541354</v>
       </c>
       <c r="E21">
-        <v>-0.01005098417235428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03979496341339068</v>
+      </c>
+      <c r="F21">
+        <v>0.0009752137209863718</v>
+      </c>
+      <c r="G21">
+        <v>0.1158655367454686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0002184128875260793</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-3.574681106531818e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-4.725948204418846e-05</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0002669235399848975</v>
+      </c>
+      <c r="F22">
+        <v>0.0003095945930113789</v>
+      </c>
+      <c r="G22">
+        <v>0.0004684291908323978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0002184128875260793</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-3.574681106531818e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-4.725948204418846e-05</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0002669235399848975</v>
+      </c>
+      <c r="F23">
+        <v>0.0003095945930113789</v>
+      </c>
+      <c r="G23">
+        <v>0.0004684291908323978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004333834229316851</v>
+        <v>-0.02822634208741854</v>
       </c>
       <c r="C24">
-        <v>0.002567266505951756</v>
+        <v>-0.05131826706411344</v>
       </c>
       <c r="D24">
-        <v>0.04451662108716017</v>
+        <v>-0.007400739028211841</v>
       </c>
       <c r="E24">
-        <v>-0.001021866027797127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00477485930804054</v>
+      </c>
+      <c r="F24">
+        <v>0.01545875918972144</v>
+      </c>
+      <c r="G24">
+        <v>0.06908561977961594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0122541854577229</v>
+        <v>-0.04288160686070911</v>
       </c>
       <c r="C25">
-        <v>-0.01463874608446017</v>
+        <v>-0.05821086706295277</v>
       </c>
       <c r="D25">
-        <v>0.04742036846164337</v>
+        <v>-0.01145958351959581</v>
       </c>
       <c r="E25">
-        <v>-0.00129696887189067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001331596683664512</v>
+      </c>
+      <c r="F25">
+        <v>0.01001288948283689</v>
+      </c>
+      <c r="G25">
+        <v>0.07729687931206083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02350385815988024</v>
+        <v>-0.01464865791756928</v>
       </c>
       <c r="C26">
-        <v>-0.01058230574307909</v>
+        <v>-0.00940608270803679</v>
       </c>
       <c r="D26">
-        <v>-0.002973243905690958</v>
+        <v>-0.0236009932522645</v>
       </c>
       <c r="E26">
-        <v>-0.008545461445851789</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005141047649529525</v>
+      </c>
+      <c r="F26">
+        <v>-0.007600105913743439</v>
+      </c>
+      <c r="G26">
+        <v>0.06559368108706774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04605001526534198</v>
+        <v>-0.1223485795810034</v>
       </c>
       <c r="C28">
-        <v>-0.2486816224356662</v>
+        <v>0.236982048425868</v>
       </c>
       <c r="D28">
-        <v>-0.1359901330234868</v>
+        <v>0.006739110698083025</v>
       </c>
       <c r="E28">
-        <v>-0.01132475753606013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00429136401163703</v>
+      </c>
+      <c r="F28">
+        <v>-0.01616377310683619</v>
+      </c>
+      <c r="G28">
+        <v>0.06689306154604538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009027884645535103</v>
+        <v>-0.009662638864315024</v>
       </c>
       <c r="C29">
-        <v>-0.01937927312225335</v>
+        <v>-0.02002309895698149</v>
       </c>
       <c r="D29">
-        <v>0.007628315342096144</v>
+        <v>-0.008262806594676719</v>
       </c>
       <c r="E29">
-        <v>-0.003158721625295481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001285338476447814</v>
+      </c>
+      <c r="F29">
+        <v>-0.01508954347011171</v>
+      </c>
+      <c r="G29">
+        <v>0.07388450229929737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362200421004548</v>
+        <v>-0.04261720860757939</v>
       </c>
       <c r="C30">
-        <v>0.002571893319416288</v>
+        <v>-0.06561860697016376</v>
       </c>
       <c r="D30">
-        <v>0.05834075928830468</v>
+        <v>-0.02905390193954578</v>
       </c>
       <c r="E30">
-        <v>0.04769723982814329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05121515351140976</v>
+      </c>
+      <c r="F30">
+        <v>0.05034431015362542</v>
+      </c>
+      <c r="G30">
+        <v>0.08573526080132916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009803674259410099</v>
+        <v>-0.05296056616015603</v>
       </c>
       <c r="C31">
-        <v>-0.03876400126482205</v>
+        <v>-0.0359309425321481</v>
       </c>
       <c r="D31">
-        <v>0.04752012416369</v>
+        <v>-0.003379402263019206</v>
       </c>
       <c r="E31">
-        <v>-0.01046047135960175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.004588144533534418</v>
+      </c>
+      <c r="F31">
+        <v>-0.03933661851967606</v>
+      </c>
+      <c r="G31">
+        <v>0.07206278193951482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004889691836427669</v>
+        <v>-0.001466843337434164</v>
       </c>
       <c r="C32">
-        <v>-0.0228362674218903</v>
+        <v>-0.02272906847413993</v>
       </c>
       <c r="D32">
-        <v>-0.005039263681452803</v>
+        <v>0.003810924926313029</v>
       </c>
       <c r="E32">
-        <v>-0.05032155858320196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01657149950895996</v>
+      </c>
+      <c r="F32">
+        <v>0.0411654581344784</v>
+      </c>
+      <c r="G32">
+        <v>0.09724695212805161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01396808759796107</v>
+        <v>-0.02792308723067146</v>
       </c>
       <c r="C33">
-        <v>-0.02221661236986459</v>
+        <v>-0.04810123622772554</v>
       </c>
       <c r="D33">
-        <v>0.03243874740408667</v>
+        <v>-0.01545562567590315</v>
       </c>
       <c r="E33">
-        <v>0.03009237055884968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03329482209638122</v>
+      </c>
+      <c r="F33">
+        <v>0.0206843386580605</v>
+      </c>
+      <c r="G33">
+        <v>0.1088764555417836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00413904369187129</v>
+        <v>-0.04024187436447718</v>
       </c>
       <c r="C34">
-        <v>-0.01490843041358506</v>
+        <v>-0.06285373684497821</v>
       </c>
       <c r="D34">
-        <v>0.05257928600111707</v>
+        <v>0.004291410488158804</v>
       </c>
       <c r="E34">
-        <v>-0.009293136804180474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0008707534212723471</v>
+      </c>
+      <c r="F34">
+        <v>0.02238539937868203</v>
+      </c>
+      <c r="G34">
+        <v>0.07705397675660133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01327514603575982</v>
+        <v>-0.01551127325674277</v>
       </c>
       <c r="C36">
-        <v>-0.02020542413883183</v>
+        <v>-0.008413577206547599</v>
       </c>
       <c r="D36">
-        <v>0.004599979675116257</v>
+        <v>-0.01182231928875738</v>
       </c>
       <c r="E36">
-        <v>-0.003360815566396677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001712276217679123</v>
+      </c>
+      <c r="F36">
+        <v>-0.005953618039301623</v>
+      </c>
+      <c r="G36">
+        <v>0.06458036117086265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003311198236793037</v>
+        <v>-0.03236401237467123</v>
       </c>
       <c r="C38">
-        <v>-0.03109231009551429</v>
+        <v>-0.03170424632948559</v>
       </c>
       <c r="D38">
-        <v>0.04320969626041522</v>
+        <v>0.007486365682786041</v>
       </c>
       <c r="E38">
-        <v>-0.006688158793195812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003471966198248978</v>
+      </c>
+      <c r="F38">
+        <v>-0.0154803036634993</v>
+      </c>
+      <c r="G38">
+        <v>0.06884345723519344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004142956581095997</v>
+        <v>-0.03563187718159939</v>
       </c>
       <c r="C39">
-        <v>0.02529214298365386</v>
+        <v>-0.08035974999139987</v>
       </c>
       <c r="D39">
-        <v>0.08570408936037434</v>
+        <v>-0.0119614393109512</v>
       </c>
       <c r="E39">
-        <v>0.01071872218209931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01957403050770917</v>
+      </c>
+      <c r="F39">
+        <v>0.02881272478772558</v>
+      </c>
+      <c r="G39">
+        <v>0.06577016109218772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01212970703680807</v>
+        <v>-0.01542572940386749</v>
       </c>
       <c r="C40">
-        <v>-0.01473584620294725</v>
+        <v>-0.04182766908094677</v>
       </c>
       <c r="D40">
-        <v>0.0272238493282525</v>
+        <v>-0.01514484639571102</v>
       </c>
       <c r="E40">
-        <v>-0.002347429470686929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02174419339206541</v>
+      </c>
+      <c r="F40">
+        <v>-0.01211792998751976</v>
+      </c>
+      <c r="G40">
+        <v>0.1077913936366161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006576360345711391</v>
+        <v>-0.0191060305398088</v>
       </c>
       <c r="C41">
-        <v>-0.0222217139053639</v>
+        <v>0.0007800681636382578</v>
       </c>
       <c r="D41">
-        <v>-0.008197328734669058</v>
+        <v>-0.00378334790927308</v>
       </c>
       <c r="E41">
-        <v>-0.003184422767467518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0002233255811229138</v>
+      </c>
+      <c r="F41">
+        <v>-0.009416168081038935</v>
+      </c>
+      <c r="G41">
+        <v>0.05004368467185995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09313758955840187</v>
+        <v>-0.01042067201810717</v>
       </c>
       <c r="C42">
-        <v>0.02383154565383017</v>
+        <v>-0.03746296779724737</v>
       </c>
       <c r="D42">
-        <v>0.2687421851294126</v>
+        <v>-0.09342665975387858</v>
       </c>
       <c r="E42">
-        <v>0.4106494229736905</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02841212453387496</v>
+      </c>
+      <c r="F42">
+        <v>-0.03569404614636701</v>
+      </c>
+      <c r="G42">
+        <v>-0.1484042577637173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007839223873335043</v>
+        <v>-0.03363572215611577</v>
       </c>
       <c r="C43">
-        <v>-0.02631902999334306</v>
+        <v>-0.01343597702479443</v>
       </c>
       <c r="D43">
-        <v>-0.005520834753469726</v>
+        <v>-0.005535411521121654</v>
       </c>
       <c r="E43">
-        <v>0.001561257824165085</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01370579223144618</v>
+      </c>
+      <c r="F43">
+        <v>-0.0004867580383982965</v>
+      </c>
+      <c r="G43">
+        <v>0.07611949803025268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002471610010195636</v>
+        <v>-0.01285106662669879</v>
       </c>
       <c r="C44">
-        <v>-0.0001678394242031389</v>
+        <v>-0.05514753577126058</v>
       </c>
       <c r="D44">
-        <v>0.03607366602107102</v>
+        <v>-0.006745742389213675</v>
       </c>
       <c r="E44">
-        <v>-0.006129672819167811</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01803707515987234</v>
+      </c>
+      <c r="F44">
+        <v>-0.007201509127348753</v>
+      </c>
+      <c r="G44">
+        <v>0.09030876322644192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01128084214457306</v>
+        <v>-0.007549093595179345</v>
       </c>
       <c r="C46">
-        <v>-0.01404173408224336</v>
+        <v>-0.01535481946083877</v>
       </c>
       <c r="D46">
-        <v>0.01113943747970526</v>
+        <v>-0.01198733729366106</v>
       </c>
       <c r="E46">
-        <v>0.001244974380316065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0009813158575858194</v>
+      </c>
+      <c r="F46">
+        <v>-0.01415229175038323</v>
+      </c>
+      <c r="G46">
+        <v>0.07386274072300912</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004515194697539113</v>
+        <v>-0.07845248098686967</v>
       </c>
       <c r="C47">
-        <v>-0.04935084624240162</v>
+        <v>-0.06499241646678273</v>
       </c>
       <c r="D47">
-        <v>0.0725876214904011</v>
+        <v>0.005203674372429034</v>
       </c>
       <c r="E47">
-        <v>-0.005895084147994443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008452989890327578</v>
+      </c>
+      <c r="F47">
+        <v>-0.0526994855086098</v>
+      </c>
+      <c r="G47">
+        <v>0.06749640784210889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004193148478527524</v>
+        <v>-0.0207403771542774</v>
       </c>
       <c r="C48">
-        <v>-0.02468931819970721</v>
+        <v>-0.01115406040943422</v>
       </c>
       <c r="D48">
-        <v>0.01745999713802217</v>
+        <v>-0.001178254300761179</v>
       </c>
       <c r="E48">
-        <v>-0.00295818690136113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001153626258154868</v>
+      </c>
+      <c r="F48">
+        <v>-0.0199623831306103</v>
+      </c>
+      <c r="G48">
+        <v>0.0704099082466018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006671936656285307</v>
+        <v>-0.07669998500366122</v>
       </c>
       <c r="C50">
-        <v>-0.05226924689904032</v>
+        <v>-0.06837459299414032</v>
       </c>
       <c r="D50">
-        <v>0.07057915890598529</v>
+        <v>0.002907004693756858</v>
       </c>
       <c r="E50">
-        <v>-0.03382422229850537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008924540449455636</v>
+      </c>
+      <c r="F50">
+        <v>-0.05783604506093747</v>
+      </c>
+      <c r="G50">
+        <v>0.08576037355118189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007379578914205685</v>
+        <v>-0.01404898172482522</v>
       </c>
       <c r="C51">
-        <v>-0.01416857553257327</v>
+        <v>-0.0340680339473375</v>
       </c>
       <c r="D51">
-        <v>0.00462835692287356</v>
+        <v>-0.01001815972538874</v>
       </c>
       <c r="E51">
-        <v>-0.005358212284879134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01628201289741041</v>
+      </c>
+      <c r="F51">
+        <v>0.02480725748265969</v>
+      </c>
+      <c r="G51">
+        <v>0.1037738115826256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007479076918592922</v>
+        <v>-0.08236869645737158</v>
       </c>
       <c r="C53">
-        <v>-0.05961409925352165</v>
+        <v>-0.08344925654454349</v>
       </c>
       <c r="D53">
-        <v>0.1293367900988105</v>
+        <v>0.004012309421331252</v>
       </c>
       <c r="E53">
-        <v>-0.01360554254984768</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02740194293566911</v>
+      </c>
+      <c r="F53">
+        <v>-0.06472656018252879</v>
+      </c>
+      <c r="G53">
+        <v>0.06731537464184133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001905594930807349</v>
+        <v>-0.02958043693801157</v>
       </c>
       <c r="C54">
-        <v>-0.03547805216291136</v>
+        <v>-0.01412502898511653</v>
       </c>
       <c r="D54">
-        <v>-0.005169992695602754</v>
+        <v>0.001747235565739224</v>
       </c>
       <c r="E54">
-        <v>-0.001046452277589408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009508913768095543</v>
+      </c>
+      <c r="F54">
+        <v>0.0004067732779977145</v>
+      </c>
+      <c r="G54">
+        <v>0.07640730789731076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003574660562485816</v>
+        <v>-0.0721653878014239</v>
       </c>
       <c r="C55">
-        <v>-0.03838104031919214</v>
+        <v>-0.0686140488851691</v>
       </c>
       <c r="D55">
-        <v>0.1060696850134911</v>
+        <v>0.005314672678043281</v>
       </c>
       <c r="E55">
-        <v>0.0002174706585814048</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02392985201901436</v>
+      </c>
+      <c r="F55">
+        <v>-0.06248758900588799</v>
+      </c>
+      <c r="G55">
+        <v>0.0412295022193915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006308805423083706</v>
+        <v>-0.1390680208798715</v>
       </c>
       <c r="C56">
-        <v>-0.0811423200675789</v>
+        <v>-0.1080804224866818</v>
       </c>
       <c r="D56">
-        <v>0.1666187401630128</v>
+        <v>0.01249500799875826</v>
       </c>
       <c r="E56">
-        <v>-0.002762267964685284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03152836906362522</v>
+      </c>
+      <c r="F56">
+        <v>-0.0802290215156328</v>
+      </c>
+      <c r="G56">
+        <v>0.01838834237518774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02347314447808915</v>
+        <v>-0.007081598513197447</v>
       </c>
       <c r="C57">
-        <v>-0.006860412535403429</v>
+        <v>-0.009079133569983501</v>
       </c>
       <c r="D57">
-        <v>0.0480763952462988</v>
+        <v>-0.02361842424488303</v>
       </c>
       <c r="E57">
-        <v>0.005231057371251976</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02407658066087482</v>
+      </c>
+      <c r="F57">
+        <v>0.009491529610335303</v>
+      </c>
+      <c r="G57">
+        <v>0.02835319894580806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01623057826829207</v>
+        <v>-0.06160759242797333</v>
       </c>
       <c r="C58">
-        <v>-0.07229153840264642</v>
+        <v>-0.04622303381940363</v>
       </c>
       <c r="D58">
-        <v>0.1417789380601947</v>
+        <v>-0.02897348879559364</v>
       </c>
       <c r="E58">
-        <v>0.4237097935370427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9383659268986401</v>
+      </c>
+      <c r="F58">
+        <v>-0.2289810200133595</v>
+      </c>
+      <c r="G58">
+        <v>-0.1129622507313569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04346549125090553</v>
+        <v>-0.1572357591685525</v>
       </c>
       <c r="C59">
-        <v>-0.2621057830164333</v>
+        <v>0.2043714361975859</v>
       </c>
       <c r="D59">
-        <v>-0.1357745751018452</v>
+        <v>0.01201563148850585</v>
       </c>
       <c r="E59">
-        <v>-0.004505522756983252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01584046669534992</v>
+      </c>
+      <c r="F59">
+        <v>3.923923106504748e-05</v>
+      </c>
+      <c r="G59">
+        <v>0.04229929151744576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04257951943643134</v>
+        <v>-0.2874616207691048</v>
       </c>
       <c r="C60">
-        <v>-0.1588942157811957</v>
+        <v>-0.1004875902926184</v>
       </c>
       <c r="D60">
-        <v>0.0867976043160036</v>
+        <v>-0.01295658787050654</v>
       </c>
       <c r="E60">
-        <v>-0.003498167443262124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001647770551346742</v>
+      </c>
+      <c r="F60">
+        <v>0.3498996985015732</v>
+      </c>
+      <c r="G60">
+        <v>-0.1302033530907298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002984148390786693</v>
+        <v>-0.03753525726901843</v>
       </c>
       <c r="C61">
-        <v>-0.002845926646049514</v>
+        <v>-0.06676060911070454</v>
       </c>
       <c r="D61">
-        <v>0.06228081501439224</v>
+        <v>-0.005344722964883141</v>
       </c>
       <c r="E61">
-        <v>-0.00217368181061217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01195924891271168</v>
+      </c>
+      <c r="F61">
+        <v>0.01618624262059333</v>
+      </c>
+      <c r="G61">
+        <v>0.06730213098659373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008148459335055461</v>
+        <v>-0.01445340478426469</v>
       </c>
       <c r="C63">
-        <v>-0.008123097655478464</v>
+        <v>-0.0291784085961444</v>
       </c>
       <c r="D63">
-        <v>0.01318437029334857</v>
+        <v>-0.008248549449628804</v>
       </c>
       <c r="E63">
-        <v>-0.0101288651768538</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0008227085506623581</v>
+      </c>
+      <c r="F63">
+        <v>-0.01679700671744295</v>
+      </c>
+      <c r="G63">
+        <v>0.07418949035513082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008805003941394395</v>
+        <v>-0.04747648670744067</v>
       </c>
       <c r="C64">
-        <v>-0.0249786028511058</v>
+        <v>-0.04588645411518964</v>
       </c>
       <c r="D64">
-        <v>0.06372220980288695</v>
+        <v>-0.006510374994797018</v>
       </c>
       <c r="E64">
-        <v>0.01357248572323129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001498471784637912</v>
+      </c>
+      <c r="F64">
+        <v>0.008239836030266698</v>
+      </c>
+      <c r="G64">
+        <v>0.06456151445530352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01611417387490551</v>
+        <v>-0.07641156617571143</v>
       </c>
       <c r="C65">
-        <v>0.0008746293943127789</v>
+        <v>-0.05949180806856218</v>
       </c>
       <c r="D65">
-        <v>0.09787125170970382</v>
+        <v>-0.01635751056779519</v>
       </c>
       <c r="E65">
-        <v>-0.01131519966163081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02651837560400759</v>
+      </c>
+      <c r="F65">
+        <v>0.03026753843616846</v>
+      </c>
+      <c r="G65">
+        <v>0.02517892216592364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004082547491755671</v>
+        <v>-0.05170360865874505</v>
       </c>
       <c r="C66">
-        <v>0.02054961746807577</v>
+        <v>-0.1102390568130694</v>
       </c>
       <c r="D66">
-        <v>0.1098011132510457</v>
+        <v>-0.01204430338772175</v>
       </c>
       <c r="E66">
-        <v>0.007509455444905598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02748125810704851</v>
+      </c>
+      <c r="F66">
+        <v>0.03883659216263249</v>
+      </c>
+      <c r="G66">
+        <v>0.07766275287342349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003583662534405693</v>
+        <v>-0.05517568694491348</v>
       </c>
       <c r="C67">
-        <v>-0.05344613693026552</v>
+        <v>-0.03489078862844418</v>
       </c>
       <c r="D67">
-        <v>0.05096485974227933</v>
+        <v>0.005737148901271224</v>
       </c>
       <c r="E67">
-        <v>-0.007655005338862677</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002850342218602135</v>
+      </c>
+      <c r="F67">
+        <v>-0.01559104972431268</v>
+      </c>
+      <c r="G67">
+        <v>0.06279557993967336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06008367038449918</v>
+        <v>-0.1464820429181811</v>
       </c>
       <c r="C68">
-        <v>-0.2410557395506898</v>
+        <v>0.2683151851569052</v>
       </c>
       <c r="D68">
-        <v>-0.1482340605769881</v>
+        <v>-0.005464150875428854</v>
       </c>
       <c r="E68">
-        <v>0.01697301965018453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01120138510301848</v>
+      </c>
+      <c r="F68">
+        <v>-0.03158098149479679</v>
+      </c>
+      <c r="G68">
+        <v>0.02388211105609698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006895406718276662</v>
+        <v>-0.082368607507759</v>
       </c>
       <c r="C69">
-        <v>-0.03881302998854243</v>
+        <v>-0.06802335007889711</v>
       </c>
       <c r="D69">
-        <v>0.07200405714164324</v>
+        <v>0.009392463534035275</v>
       </c>
       <c r="E69">
-        <v>-0.01159309811795025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02552404803124245</v>
+      </c>
+      <c r="F69">
+        <v>-0.03668031808643654</v>
+      </c>
+      <c r="G69">
+        <v>0.06915974982014635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04446057249524926</v>
+        <v>-0.1347914258294444</v>
       </c>
       <c r="C71">
-        <v>-0.210585647844855</v>
+        <v>0.229645416292752</v>
       </c>
       <c r="D71">
-        <v>-0.1184503643243512</v>
+        <v>0.003183818555651409</v>
       </c>
       <c r="E71">
-        <v>0.009661295530569726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03056994061949535</v>
+      </c>
+      <c r="F71">
+        <v>-0.01614841971389272</v>
+      </c>
+      <c r="G71">
+        <v>0.05745220161413878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001250373534804829</v>
+        <v>-0.08585960490032417</v>
       </c>
       <c r="C72">
-        <v>-0.03449607055000918</v>
+        <v>-0.07025171199039107</v>
       </c>
       <c r="D72">
-        <v>0.1159412242735116</v>
+        <v>0.007835118913497105</v>
       </c>
       <c r="E72">
-        <v>-0.005293178839943349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002630634368254293</v>
+      </c>
+      <c r="F72">
+        <v>0.04320962370243071</v>
+      </c>
+      <c r="G72">
+        <v>0.06339277014383476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05392826733239933</v>
+        <v>-0.3794873092058995</v>
       </c>
       <c r="C73">
-        <v>-0.1691010188827912</v>
+        <v>-0.1111095896888485</v>
       </c>
       <c r="D73">
-        <v>0.1687921781072982</v>
+        <v>-0.02207104352513442</v>
       </c>
       <c r="E73">
-        <v>0.03521587009972443</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06333183809924157</v>
+      </c>
+      <c r="F73">
+        <v>0.5688918347293822</v>
+      </c>
+      <c r="G73">
+        <v>-0.2163367586321253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003408392516308477</v>
+        <v>-0.1074370404834398</v>
       </c>
       <c r="C74">
-        <v>-0.06696567814162034</v>
+        <v>-0.1099492762508605</v>
       </c>
       <c r="D74">
-        <v>0.1645541759434917</v>
+        <v>0.009597543937086088</v>
       </c>
       <c r="E74">
-        <v>0.007884327598246768</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.009659112248201507</v>
+      </c>
+      <c r="F74">
+        <v>-0.07078656774879291</v>
+      </c>
+      <c r="G74">
+        <v>0.06399808471730023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0122921620417891</v>
+        <v>-0.2518851907783603</v>
       </c>
       <c r="C75">
-        <v>-0.1630064146282719</v>
+        <v>-0.1481977755181607</v>
       </c>
       <c r="D75">
-        <v>0.3035551149409527</v>
+        <v>0.03076094063481118</v>
       </c>
       <c r="E75">
-        <v>0.01179527278798931</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05592441512004215</v>
+      </c>
+      <c r="F75">
+        <v>-0.17732131802597</v>
+      </c>
+      <c r="G75">
+        <v>-0.05149103401700287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0005973087254401285</v>
+        <v>-0.1230169421388909</v>
       </c>
       <c r="C76">
-        <v>-0.1022841128041533</v>
+        <v>-0.1127734146987298</v>
       </c>
       <c r="D76">
-        <v>0.2334549312763087</v>
+        <v>0.02009198634612363</v>
       </c>
       <c r="E76">
-        <v>-0.03573851229048229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03938985874357092</v>
+      </c>
+      <c r="F76">
+        <v>-0.1172958884676059</v>
+      </c>
+      <c r="G76">
+        <v>0.04012603623934119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01411471239072453</v>
+        <v>-0.0671188539120546</v>
       </c>
       <c r="C77">
-        <v>-0.01914042519571451</v>
+        <v>-0.06042292378746729</v>
       </c>
       <c r="D77">
-        <v>0.03585666632289098</v>
+        <v>-0.01278164527857909</v>
       </c>
       <c r="E77">
-        <v>0.01745263812563558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05004849067822865</v>
+      </c>
+      <c r="F77">
+        <v>0.01342844254375696</v>
+      </c>
+      <c r="G77">
+        <v>0.06007722457379946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005894614037764836</v>
+        <v>-0.04384642096712676</v>
       </c>
       <c r="C78">
-        <v>-0.01679293496251342</v>
+        <v>-0.04925660411310775</v>
       </c>
       <c r="D78">
-        <v>0.0389575029360195</v>
+        <v>-0.005542091693321262</v>
       </c>
       <c r="E78">
-        <v>0.004376892619024504</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02208110286302987</v>
+      </c>
+      <c r="F78">
+        <v>0.03840693098106489</v>
+      </c>
+      <c r="G78">
+        <v>0.07223791679308897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0161738080046811</v>
+        <v>-0.05589359932207202</v>
       </c>
       <c r="C80">
-        <v>-0.07662869751016275</v>
+        <v>-0.06986917092852971</v>
       </c>
       <c r="D80">
-        <v>0.2191253950981993</v>
+        <v>-0.01036880973722535</v>
       </c>
       <c r="E80">
-        <v>-0.7811908506633251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02615813837010836</v>
+      </c>
+      <c r="F80">
+        <v>0.00048079422668957</v>
+      </c>
+      <c r="G80">
+        <v>0.6059351121264652</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008339097365008331</v>
+        <v>-0.1404711404727214</v>
       </c>
       <c r="C81">
-        <v>-0.09866929686429346</v>
+        <v>-0.09544737905577712</v>
       </c>
       <c r="D81">
-        <v>0.1737556806073721</v>
+        <v>0.01511774750910667</v>
       </c>
       <c r="E81">
-        <v>-0.01540062293521974</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03268876337768538</v>
+      </c>
+      <c r="F81">
+        <v>-0.1322315432986845</v>
+      </c>
+      <c r="G81">
+        <v>0.02337272628425837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1236307918296488</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06936412702158262</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007308764489370591</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08582317265630982</v>
+      </c>
+      <c r="F82">
+        <v>-0.03157431523166253</v>
+      </c>
+      <c r="G82">
+        <v>0.02968534827475185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007117726987158077</v>
+        <v>-0.03705835708889259</v>
       </c>
       <c r="C83">
-        <v>-0.01918674904075829</v>
+        <v>-0.0266689943702272</v>
       </c>
       <c r="D83">
-        <v>0.0205591822356924</v>
+        <v>-0.005497427086508184</v>
       </c>
       <c r="E83">
-        <v>0.0004848366556918046</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02506617711630105</v>
+      </c>
+      <c r="F83">
+        <v>0.03502198732724995</v>
+      </c>
+      <c r="G83">
+        <v>0.04581069539206625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01875212200626424</v>
+        <v>-0.2166688229686748</v>
       </c>
       <c r="C85">
-        <v>-0.128231244177671</v>
+        <v>-0.1448442526774818</v>
       </c>
       <c r="D85">
-        <v>0.2740189496664308</v>
+        <v>0.01847018042407237</v>
       </c>
       <c r="E85">
-        <v>0.005497037009955952</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09536825042465163</v>
+      </c>
+      <c r="F85">
+        <v>-0.1377694666394705</v>
+      </c>
+      <c r="G85">
+        <v>-0.1034266102179206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009466951887695734</v>
+        <v>-0.01459655153302898</v>
       </c>
       <c r="C86">
-        <v>-0.02953727059597396</v>
+        <v>-0.02529674708238009</v>
       </c>
       <c r="D86">
-        <v>0.00825609614111154</v>
+        <v>-0.0119264527489687</v>
       </c>
       <c r="E86">
-        <v>0.03449426749493018</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04324050350638459</v>
+      </c>
+      <c r="F86">
+        <v>0.03355231992975267</v>
+      </c>
+      <c r="G86">
+        <v>0.1537808206739446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008607936740017072</v>
+        <v>-0.02413601879401332</v>
       </c>
       <c r="C87">
-        <v>-0.006958690432804229</v>
+        <v>-0.02080211745097745</v>
       </c>
       <c r="D87">
-        <v>0.0405270715673648</v>
+        <v>-0.01210251569254305</v>
       </c>
       <c r="E87">
-        <v>0.008798051408498193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08301806703631674</v>
+      </c>
+      <c r="F87">
+        <v>0.02153571343146286</v>
+      </c>
+      <c r="G87">
+        <v>0.1013703451265707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0279799612813122</v>
+        <v>-0.09141260983855719</v>
       </c>
       <c r="C88">
-        <v>-0.02968352054619038</v>
+        <v>-0.06495939224683611</v>
       </c>
       <c r="D88">
-        <v>0.03858378998138794</v>
+        <v>-0.02268213182614659</v>
       </c>
       <c r="E88">
-        <v>-0.001927934408559083</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008597986491334912</v>
+      </c>
+      <c r="F88">
+        <v>-0.01617941256779082</v>
+      </c>
+      <c r="G88">
+        <v>0.05371059432805293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08545084060115647</v>
+        <v>-0.2268604430266745</v>
       </c>
       <c r="C89">
-        <v>-0.39387613942315</v>
+        <v>0.3725779890251201</v>
       </c>
       <c r="D89">
-        <v>-0.2085856626542172</v>
+        <v>0.001945749110666405</v>
       </c>
       <c r="E89">
-        <v>-0.01726311404553167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02075696473274</v>
+      </c>
+      <c r="F89">
+        <v>-0.03328056959133922</v>
+      </c>
+      <c r="G89">
+        <v>0.05358746353447519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06465947318868971</v>
+        <v>-0.2018474021220235</v>
       </c>
       <c r="C90">
-        <v>-0.303504289771567</v>
+        <v>0.3232728345654479</v>
       </c>
       <c r="D90">
-        <v>-0.1870057199883126</v>
+        <v>0.005958587152691344</v>
       </c>
       <c r="E90">
-        <v>0.01688643223428335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007854806329582385</v>
+      </c>
+      <c r="F90">
+        <v>-0.05008842588409809</v>
+      </c>
+      <c r="G90">
+        <v>0.01560966217167344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008544946594454404</v>
+        <v>-0.1916987625488826</v>
       </c>
       <c r="C91">
-        <v>-0.1418871842558048</v>
+        <v>-0.1405710997995311</v>
       </c>
       <c r="D91">
-        <v>0.2334819811691501</v>
+        <v>0.02320235222301382</v>
       </c>
       <c r="E91">
-        <v>-0.01664369869526656</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06640795617839755</v>
+      </c>
+      <c r="F91">
+        <v>-0.1494321059818087</v>
+      </c>
+      <c r="G91">
+        <v>0.01418907695459932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03194158016115958</v>
+        <v>-0.1995963957256</v>
       </c>
       <c r="C92">
-        <v>-0.3165736525847165</v>
+        <v>0.2639355004871642</v>
       </c>
       <c r="D92">
-        <v>-0.079669777476954</v>
+        <v>0.04018008406954016</v>
       </c>
       <c r="E92">
-        <v>0.01923115077485757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02606531623859803</v>
+      </c>
+      <c r="F92">
+        <v>-0.06171109085693169</v>
+      </c>
+      <c r="G92">
+        <v>0.1268739855810464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06256457464312995</v>
+        <v>-0.2280232104980818</v>
       </c>
       <c r="C93">
-        <v>-0.327626412829677</v>
+        <v>0.322293806019026</v>
       </c>
       <c r="D93">
-        <v>-0.1746642653320643</v>
+        <v>0.01283192995132887</v>
       </c>
       <c r="E93">
-        <v>0.04201696713244459</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.004763232619810149</v>
+      </c>
+      <c r="F93">
+        <v>-0.03295902384540018</v>
+      </c>
+      <c r="G93">
+        <v>0.02046631243763633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03220489064497961</v>
+        <v>-0.318565166461692</v>
       </c>
       <c r="C94">
-        <v>-0.1654254847938789</v>
+        <v>-0.1746659165087403</v>
       </c>
       <c r="D94">
-        <v>0.2661660196234518</v>
+        <v>0.018135876076991</v>
       </c>
       <c r="E94">
-        <v>0.01219674287606455</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1650381103927747</v>
+      </c>
+      <c r="F94">
+        <v>-0.4802969789327747</v>
+      </c>
+      <c r="G94">
+        <v>-0.3159055102373173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004721843240821959</v>
+        <v>-0.09860551527105894</v>
       </c>
       <c r="C95">
-        <v>-0.03473612436015347</v>
+        <v>-0.08572223880690451</v>
       </c>
       <c r="D95">
-        <v>0.08764323208767963</v>
+        <v>0.009188177270017611</v>
       </c>
       <c r="E95">
-        <v>0.1264531430383077</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06366373239292007</v>
+      </c>
+      <c r="F95">
+        <v>0.212217792489099</v>
+      </c>
+      <c r="G95">
+        <v>-0.1057319866237062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01473582560800291</v>
+        <v>-0.1989586363785967</v>
       </c>
       <c r="C98">
-        <v>-0.1516773332137467</v>
+        <v>-0.04385446311270783</v>
       </c>
       <c r="D98">
-        <v>0.1279301226878739</v>
+        <v>0.01233552520610095</v>
       </c>
       <c r="E98">
-        <v>0.04599272361436949</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06669747426472328</v>
+      </c>
+      <c r="F98">
+        <v>0.2376630346720426</v>
+      </c>
+      <c r="G98">
+        <v>-0.005789055039154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008811518639513946</v>
+        <v>-0.00949446453225279</v>
       </c>
       <c r="C101">
-        <v>-0.01910427859925366</v>
+        <v>-0.01998731003899828</v>
       </c>
       <c r="D101">
-        <v>0.007331949146752679</v>
+        <v>-0.008082391367304154</v>
       </c>
       <c r="E101">
-        <v>-0.003567468877924321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001564517992945138</v>
+      </c>
+      <c r="F101">
+        <v>-0.01610054333325088</v>
+      </c>
+      <c r="G101">
+        <v>0.07334472872453955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01823387763993344</v>
+        <v>-0.1188191447139225</v>
       </c>
       <c r="C102">
-        <v>-0.07143015020835652</v>
+        <v>-0.08397711311342136</v>
       </c>
       <c r="D102">
-        <v>0.1360680694084822</v>
+        <v>-0.001090219624866568</v>
       </c>
       <c r="E102">
-        <v>-0.001636109664433434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03094703807950662</v>
+      </c>
+      <c r="F102">
+        <v>-0.04076439783923528</v>
+      </c>
+      <c r="G102">
+        <v>0.003343628576340291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0006863524175719453</v>
+        <v>-0.00170370843633605</v>
       </c>
       <c r="C103">
-        <v>-0.003653883779955093</v>
+        <v>-0.004069758497988369</v>
       </c>
       <c r="D103">
-        <v>0.01985319690578324</v>
+        <v>-7.324860792400954e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01323695565223061</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0003002323715466081</v>
+      </c>
+      <c r="F103">
+        <v>-0.005966047743668644</v>
+      </c>
+      <c r="G103">
+        <v>0.01079589749556417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9742985347011847</v>
+        <v>-0.02163178354338891</v>
       </c>
       <c r="C104">
-        <v>0.1791766002017999</v>
+        <v>0.03263923603591739</v>
       </c>
       <c r="D104">
-        <v>-0.01827859918789171</v>
+        <v>-0.9871904234333631</v>
       </c>
       <c r="E104">
-        <v>-0.0405265651988601</v>
+        <v>0.05329316953134649</v>
+      </c>
+      <c r="F104">
+        <v>-0.03912092587437493</v>
+      </c>
+      <c r="G104">
+        <v>-0.02429165553892781</v>
       </c>
     </row>
   </sheetData>
